--- a/data/Microtagscan_Token.xlsx
+++ b/data/Microtagscan_Token.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE05C24-B70E-A64F-9D15-0409EFDDDCA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6911950-ED96-7047-A65D-93B8E6420AC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8980" yWindow="2840" windowWidth="27640" windowHeight="16940" xr2:uid="{E4C4474D-DA56-BE42-B5D1-1EC815E366D4}"/>
   </bookViews>
@@ -40,10 +40,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,30 +393,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872DF2D2-8101-7744-9429-07D6A9F91C0A}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/Microtagscan_Token.xlsx
+++ b/data/Microtagscan_Token.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6911950-ED96-7047-A65D-93B8E6420AC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB6E282-5C73-274B-8668-724A766220F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8980" yWindow="2840" windowWidth="27640" windowHeight="16940" xr2:uid="{E4C4474D-DA56-BE42-B5D1-1EC815E366D4}"/>
+    <workbookView xWindow="7980" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{E4C4474D-DA56-BE42-B5D1-1EC815E366D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>BNA</t>
+    <t>RLASD</t>
   </si>
   <si>
-    <t>YMA</t>
+    <t>YNATD</t>
   </si>
   <si>
-    <t>RPA</t>
+    <t>Batch 1</t>
+  </si>
+  <si>
+    <t>Batch 2</t>
   </si>
 </sst>
 </file>
@@ -393,29 +396,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872DF2D2-8101-7744-9429-07D6A9F91C0A}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
